--- a/digital-objects/omap/16-lung-codex/v1.0/raw/omap-16-lung-cell-codex.xlsx
+++ b/digital-objects/omap/16-lung-codex/v1.0/raw/omap-16-lung-cell-codex.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="322">
   <si>
     <t>OMAP-16: Organ Mapping Antibody Panel (OMAP) for Multiplexed Antibody-Based Imaging of Lung with CODEX</t>
   </si>
@@ -586,24 +586,6 @@
     <t>EPR3692</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Lato, Arial"/>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </rPr>
-      <t>240017</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Lato, Arial"/>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </rPr>
-      <t xml:space="preserve"> 4550118</t>
-    </r>
-  </si>
-  <si>
     <t>AB_2928988</t>
   </si>
   <si>
@@ -1046,7 +1028,7 @@
     </font>
     <font>
       <strike/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF000000"/>
       <name val="Lato"/>
     </font>
     <font>
@@ -1237,7 +1219,7 @@
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -3691,8 +3673,8 @@
       <c r="I28" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="J28" s="30" t="s">
-        <v>191</v>
+      <c r="J28" s="30">
+        <v>240017.0</v>
       </c>
       <c r="K28" s="22">
         <v>2.30502016E8</v>
@@ -3708,7 +3690,7 @@
         <v>53</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q28" s="9" t="s">
         <v>55</v>
@@ -3732,7 +3714,7 @@
         <v>52</v>
       </c>
       <c r="X28" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Y28" s="9" t="s">
         <v>60</v>
@@ -3766,13 +3748,13 @@
         <v>42</v>
       </c>
       <c r="B29" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="D29" s="22" t="s">
         <v>195</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>196</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>91</v>
@@ -3784,16 +3766,16 @@
         <v>48</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I29" s="9" t="s">
         <v>67</v>
       </c>
       <c r="J29" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="K29" s="22" t="s">
         <v>198</v>
-      </c>
-      <c r="K29" s="22" t="s">
-        <v>199</v>
       </c>
       <c r="L29" s="9" t="s">
         <v>71</v>
@@ -3806,7 +3788,7 @@
         <v>53</v>
       </c>
       <c r="P29" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q29" s="9" t="s">
         <v>55</v>
@@ -3830,7 +3812,7 @@
         <v>52</v>
       </c>
       <c r="X29" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Y29" s="9" t="s">
         <v>60</v>
@@ -3864,13 +3846,13 @@
         <v>42</v>
       </c>
       <c r="B30" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="D30" s="22" t="s">
         <v>203</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>204</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>91</v>
@@ -3882,16 +3864,16 @@
         <v>48</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>67</v>
       </c>
       <c r="J30" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="K30" s="22" t="s">
         <v>206</v>
-      </c>
-      <c r="K30" s="22" t="s">
-        <v>207</v>
       </c>
       <c r="L30" s="9" t="s">
         <v>71</v>
@@ -3904,7 +3886,7 @@
         <v>53</v>
       </c>
       <c r="P30" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q30" s="9" t="s">
         <v>55</v>
@@ -3928,7 +3910,7 @@
         <v>52</v>
       </c>
       <c r="X30" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Y30" s="9" t="s">
         <v>60</v>
@@ -3962,16 +3944,16 @@
         <v>42</v>
       </c>
       <c r="B31" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="D31" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="E31" s="9" t="s">
         <v>212</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>213</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>47</v>
@@ -3980,16 +3962,16 @@
         <v>48</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I31" s="9" t="s">
         <v>67</v>
       </c>
       <c r="J31" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="K31" s="9" t="s">
         <v>215</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>216</v>
       </c>
       <c r="L31" s="23" t="s">
         <v>52</v>
@@ -4002,7 +3984,7 @@
         <v>53</v>
       </c>
       <c r="P31" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q31" s="9" t="s">
         <v>55</v>
@@ -4026,7 +4008,7 @@
         <v>52</v>
       </c>
       <c r="X31" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Y31" s="9" t="s">
         <v>60</v>
@@ -4060,13 +4042,13 @@
         <v>42</v>
       </c>
       <c r="B32" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="D32" s="22" t="s">
         <v>220</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>221</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>91</v>
@@ -4078,7 +4060,7 @@
         <v>48</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I32" s="9" t="s">
         <v>50</v>
@@ -4087,7 +4069,7 @@
         <v>4450047.0</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L32" s="9" t="s">
         <v>71</v>
@@ -4100,7 +4082,7 @@
         <v>53</v>
       </c>
       <c r="P32" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Q32" s="9" t="s">
         <v>55</v>
@@ -4124,7 +4106,7 @@
         <v>52</v>
       </c>
       <c r="X32" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Y32" s="9" t="s">
         <v>60</v>
@@ -4158,34 +4140,34 @@
         <v>42</v>
       </c>
       <c r="B33" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="C33" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="D33" s="22" t="s">
         <v>227</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>228</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>91</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>48</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I33" s="9" t="s">
         <v>67</v>
       </c>
       <c r="J33" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="K33" s="9" t="s">
         <v>231</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>232</v>
       </c>
       <c r="L33" s="9" t="s">
         <v>71</v>
@@ -4198,7 +4180,7 @@
         <v>53</v>
       </c>
       <c r="P33" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Q33" s="9" t="s">
         <v>55</v>
@@ -4222,7 +4204,7 @@
         <v>71</v>
       </c>
       <c r="X33" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Y33" s="9" t="s">
         <v>60</v>
@@ -4256,25 +4238,25 @@
         <v>42</v>
       </c>
       <c r="B34" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="D34" s="22" t="s">
         <v>236</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>237</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>91</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>48</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>50</v>
@@ -4283,7 +4265,7 @@
         <v>4250079.0</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L34" s="9" t="s">
         <v>71</v>
@@ -4296,7 +4278,7 @@
         <v>53</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q34" s="9" t="s">
         <v>55</v>
@@ -4320,7 +4302,7 @@
         <v>52</v>
       </c>
       <c r="X34" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Y34" s="9" t="s">
         <v>60</v>
@@ -4354,13 +4336,13 @@
         <v>42</v>
       </c>
       <c r="B35" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="D35" s="22" t="s">
         <v>243</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>244</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>103</v>
@@ -4372,7 +4354,7 @@
         <v>48</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I35" s="9" t="s">
         <v>50</v>
@@ -4381,7 +4363,7 @@
         <v>4550122.0</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L35" s="9" t="s">
         <v>71</v>
@@ -4394,7 +4376,7 @@
         <v>53</v>
       </c>
       <c r="P35" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q35" s="9" t="s">
         <v>55</v>
@@ -4452,13 +4434,13 @@
         <v>42</v>
       </c>
       <c r="B36" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="D36" s="22" t="s">
         <v>249</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>250</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>91</v>
@@ -4470,7 +4452,7 @@
         <v>48</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I36" s="9" t="s">
         <v>50</v>
@@ -4479,7 +4461,7 @@
         <v>4450090.0</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L36" s="23" t="s">
         <v>52</v>
@@ -4492,7 +4474,7 @@
         <v>53</v>
       </c>
       <c r="P36" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q36" s="9" t="s">
         <v>55</v>
@@ -4516,7 +4498,7 @@
         <v>52</v>
       </c>
       <c r="X36" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Y36" s="9" t="s">
         <v>60</v>
@@ -4550,13 +4532,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="D37" s="22" t="s">
         <v>255</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>256</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>46</v>
@@ -4568,7 +4550,7 @@
         <v>48</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I37" s="9" t="s">
         <v>50</v>
@@ -4577,7 +4559,7 @@
         <v>4550071.0</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L37" s="9" t="s">
         <v>71</v>
@@ -4590,7 +4572,7 @@
         <v>53</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q37" s="9" t="s">
         <v>55</v>
@@ -4614,7 +4596,7 @@
         <v>52</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Y37" s="9" t="s">
         <v>60</v>
@@ -4648,25 +4630,25 @@
         <v>42</v>
       </c>
       <c r="B38" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="D38" s="22" t="s">
         <v>262</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>263</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>46</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>48</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I38" s="9" t="s">
         <v>50</v>
@@ -4675,7 +4657,7 @@
         <v>4550114.0</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L38" s="23" t="s">
         <v>52</v>
@@ -4688,7 +4670,7 @@
         <v>53</v>
       </c>
       <c r="P38" s="22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q38" s="9" t="s">
         <v>55</v>
@@ -4712,7 +4694,7 @@
         <v>52</v>
       </c>
       <c r="X38" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Y38" s="9" t="s">
         <v>60</v>
@@ -4746,13 +4728,13 @@
         <v>42</v>
       </c>
       <c r="B39" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="C39" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="D39" s="22" t="s">
         <v>270</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>271</v>
       </c>
       <c r="E39" s="22" t="s">
         <v>91</v>
@@ -4764,7 +4746,7 @@
         <v>48</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I39" s="22" t="s">
         <v>50</v>
@@ -4786,7 +4768,7 @@
         <v>53</v>
       </c>
       <c r="P39" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q39" s="9" t="s">
         <v>55</v>
@@ -4810,7 +4792,7 @@
         <v>52</v>
       </c>
       <c r="X39" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Y39" s="9" t="s">
         <v>60</v>
@@ -4844,13 +4826,13 @@
         <v>42</v>
       </c>
       <c r="B40" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="C40" s="22" t="s">
         <v>275</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="D40" s="22" t="s">
         <v>276</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>277</v>
       </c>
       <c r="E40" s="22" t="s">
         <v>91</v>
@@ -4863,13 +4845,13 @@
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="J40" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="J40" s="22" t="s">
+      <c r="K40" s="22" t="s">
         <v>279</v>
-      </c>
-      <c r="K40" s="22" t="s">
-        <v>280</v>
       </c>
       <c r="L40" s="23" t="s">
         <v>52</v>
@@ -4882,7 +4864,7 @@
         <v>53</v>
       </c>
       <c r="P40" s="22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q40" s="9" t="s">
         <v>55</v>
@@ -4906,7 +4888,7 @@
         <v>52</v>
       </c>
       <c r="X40" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Y40" s="9" t="s">
         <v>60</v>
@@ -4940,13 +4922,13 @@
         <v>42</v>
       </c>
       <c r="B41" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="C41" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="D41" s="22" t="s">
         <v>283</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>284</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>46</v>
@@ -4958,29 +4940,29 @@
         <v>48</v>
       </c>
       <c r="H41" s="22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I41" s="22" t="s">
         <v>168</v>
       </c>
       <c r="J41" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="K41" s="22" t="s">
         <v>286</v>
-      </c>
-      <c r="K41" s="22" t="s">
-        <v>287</v>
       </c>
       <c r="L41" s="23" t="s">
         <v>52</v>
       </c>
       <c r="M41" s="6"/>
       <c r="N41" s="33" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O41" s="9" t="s">
         <v>53</v>
       </c>
       <c r="P41" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q41" s="9" t="s">
         <v>55</v>
@@ -5004,7 +4986,7 @@
         <v>52</v>
       </c>
       <c r="X41" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Y41" s="9" t="s">
         <v>60</v>
@@ -5038,16 +5020,16 @@
         <v>42</v>
       </c>
       <c r="B42" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="C42" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="D42" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="E42" s="22" t="s">
         <v>293</v>
-      </c>
-      <c r="E42" s="22" t="s">
-        <v>294</v>
       </c>
       <c r="F42" s="22" t="s">
         <v>47</v>
@@ -5062,23 +5044,23 @@
         <v>168</v>
       </c>
       <c r="J42" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="K42" s="22" t="s">
         <v>295</v>
-      </c>
-      <c r="K42" s="22" t="s">
-        <v>296</v>
       </c>
       <c r="L42" s="23" t="s">
         <v>52</v>
       </c>
       <c r="M42" s="6"/>
       <c r="N42" s="33" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O42" s="9" t="s">
         <v>53</v>
       </c>
       <c r="P42" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q42" s="9" t="s">
         <v>55</v>
@@ -5102,7 +5084,7 @@
         <v>52</v>
       </c>
       <c r="X42" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Y42" s="9" t="s">
         <v>60</v>
@@ -5136,16 +5118,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="C43" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="D43" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="E43" s="22" t="s">
         <v>301</v>
-      </c>
-      <c r="E43" s="22" t="s">
-        <v>302</v>
       </c>
       <c r="F43" s="22" t="s">
         <v>92</v>
@@ -5154,29 +5136,29 @@
         <v>48</v>
       </c>
       <c r="H43" s="34" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I43" s="22" t="s">
         <v>67</v>
       </c>
       <c r="J43" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="K43" s="22" t="s">
         <v>304</v>
-      </c>
-      <c r="K43" s="22" t="s">
-        <v>305</v>
       </c>
       <c r="L43" s="22" t="s">
         <v>71</v>
       </c>
       <c r="M43" s="6"/>
       <c r="N43" s="33" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O43" s="9" t="s">
         <v>53</v>
       </c>
       <c r="P43" s="26" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q43" s="9" t="s">
         <v>55</v>
@@ -5200,7 +5182,7 @@
         <v>52</v>
       </c>
       <c r="X43" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Y43" s="9" t="s">
         <v>60</v>
@@ -5234,13 +5216,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="C44" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="D44" s="22" t="s">
         <v>309</v>
-      </c>
-      <c r="D44" s="22" t="s">
-        <v>310</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>46</v>
@@ -5252,16 +5234,16 @@
         <v>48</v>
       </c>
       <c r="H44" s="22" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I44" s="22" t="s">
         <v>67</v>
       </c>
       <c r="J44" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="K44" s="22" t="s">
         <v>312</v>
-      </c>
-      <c r="K44" s="22" t="s">
-        <v>313</v>
       </c>
       <c r="L44" s="22" t="s">
         <v>71</v>
@@ -5274,7 +5256,7 @@
         <v>53</v>
       </c>
       <c r="P44" s="22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Q44" s="9" t="s">
         <v>55</v>
@@ -5298,7 +5280,7 @@
         <v>52</v>
       </c>
       <c r="X44" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Y44" s="9" t="s">
         <v>60</v>
@@ -5332,13 +5314,13 @@
         <v>42</v>
       </c>
       <c r="B45" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="C45" s="36" t="s">
         <v>316</v>
       </c>
-      <c r="C45" s="36" t="s">
+      <c r="D45" s="22" t="s">
         <v>317</v>
-      </c>
-      <c r="D45" s="22" t="s">
-        <v>318</v>
       </c>
       <c r="E45" s="22" t="s">
         <v>167</v>
@@ -5354,10 +5336,10 @@
         <v>168</v>
       </c>
       <c r="J45" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="K45" s="22" t="s">
         <v>319</v>
-      </c>
-      <c r="K45" s="22" t="s">
-        <v>320</v>
       </c>
       <c r="L45" s="23" t="s">
         <v>52</v>
@@ -5370,7 +5352,7 @@
         <v>53</v>
       </c>
       <c r="P45" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q45" s="9" t="s">
         <v>55</v>
@@ -5394,7 +5376,7 @@
         <v>52</v>
       </c>
       <c r="X45" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Y45" s="9" t="s">
         <v>60</v>
